--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1677,28 +1677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.1497536051598</v>
+        <v>247.8646195234884</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.3807463988508</v>
+        <v>339.1393074471367</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.7668646373663</v>
+        <v>306.7723279294905</v>
       </c>
       <c r="AD2" t="n">
-        <v>196149.7536051598</v>
+        <v>247864.6195234884</v>
       </c>
       <c r="AE2" t="n">
-        <v>268380.7463988508</v>
+        <v>339139.3074471367</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.794661294704026e-06</v>
+        <v>4.028963738369183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87384259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>242766.8646373663</v>
+        <v>306772.3279294905</v>
       </c>
     </row>
     <row r="3">
@@ -1783,28 +1783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.020021073275</v>
+        <v>166.4682409091879</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.6356171446459</v>
+        <v>227.7691912723191</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.3960073680924</v>
+        <v>206.0312193334222</v>
       </c>
       <c r="AD3" t="n">
-        <v>132020.021073275</v>
+        <v>166468.2409091879</v>
       </c>
       <c r="AE3" t="n">
-        <v>180635.6171446459</v>
+        <v>227769.1912723191</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.784633019755628e-06</v>
+        <v>5.456170745458787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>163396.0073680924</v>
+        <v>206031.2193334222</v>
       </c>
     </row>
     <row r="4">
@@ -1889,28 +1889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.9832523470001</v>
+        <v>165.9794096152737</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.2711114992636</v>
+        <v>227.1003507302713</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.2115527878088</v>
+        <v>205.4262119939837</v>
       </c>
       <c r="AD4" t="n">
-        <v>122983.2523470001</v>
+        <v>165979.4096152737</v>
       </c>
       <c r="AE4" t="n">
-        <v>168271.1114992636</v>
+        <v>227100.3507302713</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.803854751923739e-06</v>
+        <v>5.483882032705194e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.991898148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>152211.5527878088</v>
+        <v>205426.2119939837</v>
       </c>
     </row>
   </sheetData>
@@ -2186,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.7546134614084</v>
+        <v>196.6711390358308</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.7420894295039</v>
+        <v>269.0941289469963</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.5337215963015</v>
+        <v>243.4121629563557</v>
       </c>
       <c r="AD2" t="n">
-        <v>154754.6134614084</v>
+        <v>196671.1390358308</v>
       </c>
       <c r="AE2" t="n">
-        <v>211742.0894295039</v>
+        <v>269094.1289469963</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.338061495447587e-06</v>
+        <v>4.886796454957214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.421296296296298</v>
       </c>
       <c r="AH2" t="n">
-        <v>191533.7215963015</v>
+        <v>243412.1629563557</v>
       </c>
     </row>
     <row r="3">
@@ -2292,28 +2292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.961495918912</v>
+        <v>159.5459387929031</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.3460757451847</v>
+        <v>218.2977921264069</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.8976081653488</v>
+        <v>197.4637572288007</v>
       </c>
       <c r="AD3" t="n">
-        <v>125961.495918912</v>
+        <v>159545.9387929031</v>
       </c>
       <c r="AE3" t="n">
-        <v>172346.0757451847</v>
+        <v>218297.7921264069</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.90129587515015e-06</v>
+        <v>5.711350398554184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>155897.6081653488</v>
+        <v>197463.7572288007</v>
       </c>
     </row>
   </sheetData>
@@ -2589,28 +2589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.5683538757669</v>
+        <v>154.637598321277</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.0716732237796</v>
+        <v>211.5819841524324</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.9357100249327</v>
+        <v>191.3888965421645</v>
       </c>
       <c r="AD2" t="n">
-        <v>123568.3538757669</v>
+        <v>154637.5983212769</v>
       </c>
       <c r="AE2" t="n">
-        <v>169071.6732237796</v>
+        <v>211581.9841524324</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889929732203436e-06</v>
+        <v>6.018201441085002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.016203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>152935.7100249327</v>
+        <v>191388.8965421645</v>
       </c>
     </row>
   </sheetData>
@@ -2886,28 +2886,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.4587752887722</v>
+        <v>150.4593859897295</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.0805223823589</v>
+        <v>205.8651697106933</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.6117848076731</v>
+        <v>186.2176868471437</v>
       </c>
       <c r="AD2" t="n">
-        <v>118458.7752887722</v>
+        <v>150459.3859897295</v>
       </c>
       <c r="AE2" t="n">
-        <v>162080.5223823589</v>
+        <v>205865.1697106933</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.963567473794926e-06</v>
+        <v>5.990115616648977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.466435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>146611.7848076731</v>
+        <v>186217.6868471437</v>
       </c>
     </row>
   </sheetData>
@@ -3183,28 +3183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9810270476766</v>
+        <v>160.7750852333819</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2680667465559</v>
+        <v>219.9795645123829</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.2087986220262</v>
+        <v>198.9850236186421</v>
       </c>
       <c r="AD2" t="n">
-        <v>122981.0270476766</v>
+        <v>160775.0852333819</v>
       </c>
       <c r="AE2" t="n">
-        <v>168268.0667465559</v>
+        <v>219979.5645123829</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.710471120446631e-06</v>
+        <v>5.864355044378697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.820601851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>152208.7986220262</v>
+        <v>198985.0236186421</v>
       </c>
     </row>
   </sheetData>
@@ -3480,28 +3480,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.0240111805103</v>
+        <v>204.3949244427114</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.6884000919674</v>
+        <v>279.6621528900482</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.5307703288774</v>
+        <v>252.9715895266009</v>
       </c>
       <c r="AD2" t="n">
-        <v>162024.0111805103</v>
+        <v>204394.9244427114</v>
       </c>
       <c r="AE2" t="n">
-        <v>221688.4000919674</v>
+        <v>279662.1528900482</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.197054744562867e-06</v>
+        <v>4.660942276988012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>200530.7703288774</v>
+        <v>252971.5895266009</v>
       </c>
     </row>
     <row r="3">
@@ -3586,28 +3586,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.564039150424</v>
+        <v>161.3755184141643</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5387460937561</v>
+        <v>220.8011036795715</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.8810131332853</v>
+        <v>199.728156240752</v>
       </c>
       <c r="AD3" t="n">
-        <v>127564.039150424</v>
+        <v>161375.5184141643</v>
       </c>
       <c r="AE3" t="n">
-        <v>174538.7460937561</v>
+        <v>220801.1036795715</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.865820082177433e-06</v>
+        <v>5.63592609319354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>157881.0131332853</v>
+        <v>199728.156240752</v>
       </c>
     </row>
   </sheetData>
@@ -3883,28 +3883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.3244255333347</v>
+        <v>168.5865762931248</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.6838726393906</v>
+        <v>230.6675911989815</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.5350960226366</v>
+        <v>208.6530000390148</v>
       </c>
       <c r="AD2" t="n">
-        <v>131324.4255333347</v>
+        <v>168586.5762931248</v>
       </c>
       <c r="AE2" t="n">
-        <v>179683.8726393906</v>
+        <v>230667.5911989815</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.538650328838669e-06</v>
+        <v>5.669749047544946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.53819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>162535.0960226366</v>
+        <v>208653.0000390148</v>
       </c>
     </row>
   </sheetData>
@@ -4180,28 +4180,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7946784992267</v>
+        <v>157.6422784410972</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.7495846752205</v>
+        <v>215.6931200495</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.4534839624121</v>
+        <v>195.1076713992327</v>
       </c>
       <c r="AD2" t="n">
-        <v>124794.6784992267</v>
+        <v>157642.2784410972</v>
       </c>
       <c r="AE2" t="n">
-        <v>170749.5846752205</v>
+        <v>215693.1200495</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854749529878684e-06</v>
+        <v>5.723698616078395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.402777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>154453.4839624121</v>
+        <v>195107.6713992328</v>
       </c>
     </row>
     <row r="3">
@@ -4286,28 +4286,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.3752585418332</v>
+        <v>155.2228584837038</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.4392275522409</v>
+        <v>212.3827629265204</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.4590626771333</v>
+        <v>192.1132501139539</v>
       </c>
       <c r="AD3" t="n">
-        <v>122375.2585418332</v>
+        <v>155222.8584837037</v>
       </c>
       <c r="AE3" t="n">
-        <v>167439.2275522409</v>
+        <v>212382.7629265204</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.946214747290129e-06</v>
+        <v>5.859510121925748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.206018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>151459.0626771333</v>
+        <v>192113.250113954</v>
       </c>
     </row>
   </sheetData>
@@ -4583,28 +4583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.0719865243583</v>
+        <v>180.5061005194957</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.2303803206574</v>
+        <v>246.97641009779</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.0252352515236</v>
+        <v>223.4053281516972</v>
       </c>
       <c r="AD2" t="n">
-        <v>147071.9865243583</v>
+        <v>180506.1005194957</v>
       </c>
       <c r="AE2" t="n">
-        <v>201230.3803206574</v>
+        <v>246976.41009779</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.504907290271339e-06</v>
+        <v>5.153764565069645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.056712962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>182025.2352515236</v>
+        <v>223405.3281516972</v>
       </c>
     </row>
     <row r="3">
@@ -4689,28 +4689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.8544489371842</v>
+        <v>156.4762978362739</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.1489240564625</v>
+        <v>214.0977739465475</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.150851304457</v>
+        <v>193.6645828892632</v>
       </c>
       <c r="AD3" t="n">
-        <v>114854.4489371842</v>
+        <v>156476.2978362739</v>
       </c>
       <c r="AE3" t="n">
-        <v>157148.9240564625</v>
+        <v>214097.7739465475</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.97049148535957e-06</v>
+        <v>5.83837934314454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.991898148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>142150.851304457</v>
+        <v>193664.5828892632</v>
       </c>
     </row>
   </sheetData>
@@ -4986,28 +4986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.8353703810778</v>
+        <v>229.6600950767025</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.6363963500818</v>
+        <v>314.23107397212</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.2388174704401</v>
+        <v>284.2413012983963</v>
       </c>
       <c r="AD2" t="n">
-        <v>186835.3703810778</v>
+        <v>229660.0950767025</v>
       </c>
       <c r="AE2" t="n">
-        <v>255636.3963500817</v>
+        <v>314231.07397212</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.927801628181853e-06</v>
+        <v>4.235862900623825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>231238.8174704401</v>
+        <v>284241.3012983963</v>
       </c>
     </row>
     <row r="3">
@@ -5092,28 +5092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.1157764814908</v>
+        <v>164.3585059687864</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.0301456848257</v>
+        <v>224.8825588519264</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.0391984475945</v>
+        <v>203.4200830598169</v>
       </c>
       <c r="AD3" t="n">
-        <v>130115.7764814908</v>
+        <v>164358.5059687864</v>
       </c>
       <c r="AE3" t="n">
-        <v>178030.1456848257</v>
+        <v>224882.5588519264</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.827804439463084e-06</v>
+        <v>5.537962223907116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.003472222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>161039.1984475944</v>
+        <v>203420.0830598169</v>
       </c>
     </row>
   </sheetData>
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.4533652915397</v>
+        <v>151.7513508783144</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.4413643023589</v>
+        <v>207.6328930687226</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.8427498847824</v>
+        <v>187.8167011688985</v>
       </c>
       <c r="AD2" t="n">
-        <v>119453.3652915397</v>
+        <v>151751.3508783144</v>
       </c>
       <c r="AE2" t="n">
-        <v>163441.3643023589</v>
+        <v>207632.8930687226</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.969629307657251e-06</v>
+        <v>5.961131254730555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>147842.7498847824</v>
+        <v>187816.7011688985</v>
       </c>
     </row>
     <row r="3">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.7723072934293</v>
+        <v>152.0702928802041</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.8777548200721</v>
+        <v>208.0692835864357</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.2374919039631</v>
+        <v>188.2114431880792</v>
       </c>
       <c r="AD3" t="n">
-        <v>119772.3072934293</v>
+        <v>152070.292880204</v>
       </c>
       <c r="AE3" t="n">
-        <v>163877.7548200721</v>
+        <v>208069.2835864357</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.96888478381613e-06</v>
+        <v>5.960013214733563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.350694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>148237.4919039631</v>
+        <v>188211.4431880793</v>
       </c>
     </row>
   </sheetData>
@@ -5792,28 +5792,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.6322855525254</v>
+        <v>155.8379046583555</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.5814385461872</v>
+        <v>213.2242962366007</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.3512100253386</v>
+        <v>192.8744686660198</v>
       </c>
       <c r="AD2" t="n">
-        <v>116632.2855525254</v>
+        <v>155837.9046583555</v>
       </c>
       <c r="AE2" t="n">
-        <v>159581.4385461872</v>
+        <v>213224.2962366007</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925938442782339e-06</v>
+        <v>6.021395322927202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.796296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>144351.2100253386</v>
+        <v>192874.4686660198</v>
       </c>
     </row>
   </sheetData>
@@ -9390,28 +9390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.3821854397786</v>
+        <v>161.552893689643</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.8169493564888</v>
+        <v>221.0437963567261</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.7052966460289</v>
+        <v>199.9476866694203</v>
       </c>
       <c r="AD2" t="n">
-        <v>123382.1854397786</v>
+        <v>161552.893689643</v>
       </c>
       <c r="AE2" t="n">
-        <v>168816.9493564888</v>
+        <v>221043.7963567261</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.809352217681172e-06</v>
+        <v>5.952037699261827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>152705.2966460289</v>
+        <v>199947.6866694203</v>
       </c>
     </row>
   </sheetData>
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.4887423157053</v>
+        <v>185.2392792706929</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.5911392790318</v>
+        <v>253.452554078284</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.1150726531662</v>
+        <v>229.2633980400201</v>
       </c>
       <c r="AD2" t="n">
-        <v>141488.7423157053</v>
+        <v>185239.2792706929</v>
       </c>
       <c r="AE2" t="n">
-        <v>193591.1392790317</v>
+        <v>253452.554078284</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.237653220327637e-06</v>
+        <v>5.27632618040814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.84027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>175115.0726531662</v>
+        <v>229263.3980400201</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.1252946776626</v>
+        <v>172.5259320191964</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.4114130176268</v>
+        <v>236.0575914954989</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.2886395647744</v>
+        <v>213.5285862721472</v>
       </c>
       <c r="AD2" t="n">
-        <v>131125.2946776626</v>
+        <v>172525.9320191964</v>
       </c>
       <c r="AE2" t="n">
-        <v>179411.4130176269</v>
+        <v>236057.5914954989</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.687574363456794e-06</v>
+        <v>5.447951580727476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.69212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>162288.6395647744</v>
+        <v>213528.5862721472</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.9811806178046</v>
+        <v>157.0847118286683</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.6365209848657</v>
+        <v>214.9302328122722</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.4466495084697</v>
+        <v>194.4175930492068</v>
       </c>
       <c r="AD3" t="n">
-        <v>123981.1806178046</v>
+        <v>157084.7118286683</v>
       </c>
       <c r="AE3" t="n">
-        <v>169636.5209848657</v>
+        <v>214930.2328122722</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.91607091975397e-06</v>
+        <v>5.785528006956628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH3" t="n">
-        <v>153446.6495084697</v>
+        <v>194417.5930492068</v>
       </c>
     </row>
   </sheetData>
@@ -10387,28 +10387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.7240560053512</v>
+        <v>221.2837188628633</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.5381381752834</v>
+        <v>302.770146496713</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.1997614793378</v>
+        <v>273.8741886557257</v>
       </c>
       <c r="AD2" t="n">
-        <v>178724.0560053512</v>
+        <v>221283.7188628633</v>
       </c>
       <c r="AE2" t="n">
-        <v>244538.1381752834</v>
+        <v>302770.146496713</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.055388674384641e-06</v>
+        <v>4.436940763644574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1099537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>221199.7614793378</v>
+        <v>273874.1886557257</v>
       </c>
     </row>
     <row r="3">
@@ -10493,28 +10493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.6823956980597</v>
+        <v>162.7130757148652</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.0689308606391</v>
+        <v>222.6312085872531</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.2651592136454</v>
+        <v>201.3835985046133</v>
       </c>
       <c r="AD3" t="n">
-        <v>128682.3956980597</v>
+        <v>162713.0757148652</v>
       </c>
       <c r="AE3" t="n">
-        <v>176068.9308606391</v>
+        <v>222631.2085872531</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.853718391612048e-06</v>
+        <v>5.596250443257926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.015046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>159265.1592136454</v>
+        <v>201383.5985046133</v>
       </c>
     </row>
   </sheetData>
@@ -10790,28 +10790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.0007331885118</v>
+        <v>227.8407040960282</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.9707471683336</v>
+        <v>311.7417029664974</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.6409074386615</v>
+        <v>281.9895123676953</v>
       </c>
       <c r="AD2" t="n">
-        <v>171000.7331885117</v>
+        <v>227840.7040960282</v>
       </c>
       <c r="AE2" t="n">
-        <v>233970.7471683336</v>
+        <v>311741.7029664974</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.695109459733649e-06</v>
+        <v>4.492586897336839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.72800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>211640.9074386616</v>
+        <v>281989.5123676953</v>
       </c>
     </row>
   </sheetData>
@@ -11087,28 +11087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.4710808424676</v>
+        <v>157.0984448669748</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.729115266922</v>
+        <v>214.949022961142</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.3893540906213</v>
+        <v>194.4345898926406</v>
       </c>
       <c r="AD2" t="n">
-        <v>117471.0808424676</v>
+        <v>157098.4448669748</v>
       </c>
       <c r="AE2" t="n">
-        <v>160729.115266922</v>
+        <v>214949.022961142</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.951017726097572e-06</v>
+        <v>6.013080039888272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.611111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>145389.3540906213</v>
+        <v>194434.5898926406</v>
       </c>
     </row>
   </sheetData>
@@ -11384,28 +11384,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.9895498374464</v>
+        <v>153.5691831035501</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.5432397697465</v>
+        <v>210.1201313163866</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.744025307564</v>
+        <v>190.0665608890671</v>
       </c>
       <c r="AD2" t="n">
-        <v>120989.5498374464</v>
+        <v>153569.1831035501</v>
       </c>
       <c r="AE2" t="n">
-        <v>165543.2397697465</v>
+        <v>210120.1313163866</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.949162588417449e-06</v>
+        <v>5.895747060677455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.292824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>149744.0253075639</v>
+        <v>190066.5608890671</v>
       </c>
     </row>
     <row r="3">
@@ -11490,28 +11490,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.4127268045578</v>
+        <v>153.9923600706615</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.1222491653982</v>
+        <v>210.6991407120382</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.2677748591396</v>
+        <v>190.5903104406428</v>
       </c>
       <c r="AD3" t="n">
-        <v>121412.7268045578</v>
+        <v>153992.3600706615</v>
       </c>
       <c r="AE3" t="n">
-        <v>166122.2491653982</v>
+        <v>210699.1407120382</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.944747776356959e-06</v>
+        <v>5.889156140540255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.304398148148147</v>
       </c>
       <c r="AH3" t="n">
-        <v>150267.7748591396</v>
+        <v>190590.3104406428</v>
       </c>
     </row>
   </sheetData>
